--- a/pcbFiles/OrderFolderGolfGlove/GolfGlovePartListRev1.xlsx
+++ b/pcbFiles/OrderFolderGolfGlove/GolfGlovePartListRev1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GolfGloveRepo\golf-glove\pcbFiles\PartList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GolfGloveRepo\golf-glove\pcbFiles\OrderFolderGolfGlove\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519FFB33-73AD-46EF-894C-3B827F3229B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEBAF81-A224-46F2-AF1E-44639F26F5D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CBCACE4E-7A75-40F8-B156-07C16FC0ADE4}"/>
+    <workbookView xWindow="26625" yWindow="-15045" windowWidth="12150" windowHeight="20835" xr2:uid="{CBCACE4E-7A75-40F8-B156-07C16FC0ADE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="164">
   <si>
     <t>C1</t>
   </si>
@@ -171,9 +171,6 @@
     <t>10pF</t>
   </si>
   <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL05C120JB5NNNC/1276-1178-1-ND/3889264</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL05B103KO5NNNC/1276-1051-1-ND/3889137</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL05F104ZO5NNNC/1276-1004-1-ND/3889090</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
     <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM1555C1H100JA01D/490-5921-1-ND/3721278</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/kingbright/APTD1608VBC-D/754-1804-2-ND/4753653</t>
-  </si>
-  <si>
     <t>Kingbright</t>
   </si>
   <si>
@@ -529,6 +520,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/XRCGB24M000F0L00R0/490-5575-1-ND/2368389</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/kingbright/APTD1608VBC-D/754-1804-1-ND/4753651</t>
   </si>
 </sst>
 </file>
@@ -552,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,18 +579,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,15 +624,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C07ECE9F-FE77-44BD-A372-6CCE685EB4B9}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C07ECE9F-FE77-44BD-A372-6CCE685EB4B9}" name="Table1" displayName="Table1" ref="A1:H78" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:H78" xr:uid="{1FE8ECD0-BD7A-45AF-BF48-B3DF74ABF540}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:H68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
     <sortCondition ref="B1:B78"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5D61B22A-808D-4EB5-9B9D-00C47EB8A6BE}" name="PartName"/>
-    <tableColumn id="2" xr3:uid="{6F4EFBD3-75D1-40DF-A225-6563222AF1E5}" name="Value" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{0EDBAA77-5448-47D1-93FE-DABF7265E1BD}" name="Form Factor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6F4EFBD3-75D1-40DF-A225-6563222AF1E5}" name="Value" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0EDBAA77-5448-47D1-93FE-DABF7265E1BD}" name="Form Factor" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00A4648E-5AB9-4208-AB72-034570CAB62C}" name="Part Number"/>
     <tableColumn id="5" xr3:uid="{D2867CEC-DCB6-4A63-A53E-2FE181724994}" name="Brand"/>
     <tableColumn id="8" xr3:uid="{7BBD920B-522E-4E83-B093-14B1B0F5830D}" name="Price"/>
@@ -938,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8268F-4034-47C1-9BD7-843E62CBF01D}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,16 +968,16 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1" t="s">
         <v>35</v>
@@ -981,220 +985,220 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>402</v>
       </c>
-      <c r="G2" t="s">
-        <v>98</v>
+      <c r="G2" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>402</v>
       </c>
-      <c r="G3" t="s">
-        <v>98</v>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>402</v>
       </c>
-      <c r="G4" t="s">
-        <v>98</v>
+      <c r="G4" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>402</v>
       </c>
-      <c r="G5" t="s">
-        <v>98</v>
+      <c r="G5" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>402</v>
       </c>
-      <c r="G6" t="s">
-        <v>98</v>
+      <c r="G6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>402</v>
       </c>
-      <c r="G7" t="s">
-        <v>98</v>
+      <c r="G7" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>402</v>
       </c>
-      <c r="G8" t="s">
-        <v>98</v>
+      <c r="G8" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>402</v>
       </c>
-      <c r="G9" t="s">
-        <v>98</v>
+      <c r="G9" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>402</v>
       </c>
-      <c r="G10" t="s">
-        <v>98</v>
+      <c r="G10" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="1">
         <v>402</v>
       </c>
-      <c r="G11" t="s">
-        <v>98</v>
+      <c r="G11" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>402</v>
       </c>
-      <c r="G12" t="s">
-        <v>98</v>
+      <c r="G12" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>402</v>
       </c>
-      <c r="G13" t="s">
-        <v>98</v>
+      <c r="G13" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>402</v>
       </c>
-      <c r="G14" t="s">
-        <v>98</v>
+      <c r="G14" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H14" t="s">
         <v>139</v>
@@ -1202,203 +1206,203 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="1">
         <v>402</v>
       </c>
-      <c r="G15" t="s">
-        <v>98</v>
+      <c r="G15" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="1">
         <v>402</v>
       </c>
-      <c r="G16" t="s">
-        <v>98</v>
+      <c r="G16" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="1">
         <v>402</v>
       </c>
-      <c r="G17" t="s">
-        <v>98</v>
+      <c r="G17" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>402</v>
       </c>
-      <c r="G18" t="s">
-        <v>98</v>
+      <c r="G18" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>402</v>
       </c>
-      <c r="G19" t="s">
-        <v>98</v>
+      <c r="G19" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>402</v>
       </c>
-      <c r="G20" t="s">
-        <v>98</v>
+      <c r="G20" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>402</v>
       </c>
-      <c r="G21" t="s">
-        <v>98</v>
+      <c r="G21" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>402</v>
       </c>
-      <c r="G22" t="s">
-        <v>98</v>
+      <c r="G22" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="1">
         <v>402</v>
       </c>
-      <c r="G23" t="s">
-        <v>98</v>
+      <c r="G23" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="1">
         <v>402</v>
       </c>
-      <c r="G24" t="s">
-        <v>98</v>
+      <c r="G24" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>402</v>
       </c>
-      <c r="G25" t="s">
-        <v>98</v>
+      <c r="G25" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="1">
         <v>402</v>
       </c>
-      <c r="G26" t="s">
-        <v>98</v>
+      <c r="G26" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
@@ -1406,16 +1410,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="1">
         <v>402</v>
       </c>
-      <c r="G27" t="s">
-        <v>98</v>
+      <c r="G27" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H27" t="s">
         <v>138</v>
@@ -1423,860 +1427,862 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="1">
         <v>402</v>
       </c>
-      <c r="G28" t="s">
-        <v>98</v>
+      <c r="G28" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="1">
         <v>402</v>
       </c>
-      <c r="G29" t="s">
-        <v>98</v>
+      <c r="G29" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C30" s="1">
         <v>402</v>
       </c>
-      <c r="G30" t="s">
-        <v>98</v>
+      <c r="G30" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C31" s="1">
         <v>402</v>
       </c>
-      <c r="G31" t="s">
-        <v>98</v>
+      <c r="G31" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="1">
         <v>402</v>
       </c>
-      <c r="G32" t="s">
-        <v>98</v>
+      <c r="G32" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1">
         <v>402</v>
       </c>
-      <c r="G33" t="s">
-        <v>98</v>
+      <c r="G33" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C34" s="1">
         <v>603</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
+        <v>142</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1">
         <v>402</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C50" s="1">
         <v>402</v>
       </c>
-      <c r="G50" t="s">
-        <v>100</v>
+      <c r="G50" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>161</v>
+        <v>65</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C51" s="1">
         <v>603</v>
       </c>
-      <c r="G51" t="s">
-        <v>101</v>
+      <c r="G51" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>161</v>
+        <v>66</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C52" s="1">
         <v>603</v>
       </c>
-      <c r="G52" t="s">
-        <v>101</v>
+      <c r="G52" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C53" s="1">
         <v>603</v>
       </c>
-      <c r="G53" t="s">
-        <v>100</v>
+      <c r="G53" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="1">
         <v>402</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="1">
+        <v>79</v>
+      </c>
+      <c r="B55" s="4">
         <v>0</v>
       </c>
       <c r="C55" s="1">
         <v>402</v>
       </c>
-      <c r="G55" t="s">
-        <v>102</v>
+      <c r="G55" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H55" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="1">
+        <v>82</v>
+      </c>
+      <c r="B56" s="4">
         <v>100</v>
       </c>
       <c r="C56" s="1">
         <v>402</v>
       </c>
-      <c r="G56" t="s">
-        <v>102</v>
+      <c r="G56" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="1">
+        <v>70</v>
+      </c>
+      <c r="B57" s="4">
         <v>470</v>
       </c>
       <c r="C57" s="1">
         <v>402</v>
       </c>
-      <c r="G57" t="s">
-        <v>102</v>
+      <c r="G57" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C58" s="1">
         <v>402</v>
       </c>
-      <c r="G58" t="s">
-        <v>102</v>
+      <c r="G58" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C59" s="1">
         <v>402</v>
       </c>
-      <c r="G59" t="s">
-        <v>102</v>
+      <c r="G59" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C60" s="1">
         <v>402</v>
       </c>
-      <c r="G60" t="s">
-        <v>102</v>
+      <c r="G60" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C61" s="1">
         <v>402</v>
       </c>
-      <c r="G61" t="s">
-        <v>102</v>
+      <c r="G61" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C62" s="1">
         <v>402</v>
       </c>
-      <c r="G62" t="s">
-        <v>102</v>
+      <c r="G62" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C63" s="1">
         <v>402</v>
       </c>
-      <c r="G63" t="s">
-        <v>102</v>
+      <c r="G63" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C64" s="1">
         <v>402</v>
       </c>
-      <c r="G64" t="s">
-        <v>102</v>
+      <c r="G64" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C65" s="1">
         <v>402</v>
       </c>
-      <c r="G65" t="s">
-        <v>102</v>
+      <c r="G65" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C66" s="1">
         <v>402</v>
       </c>
-      <c r="G66" t="s">
-        <v>102</v>
+      <c r="G66" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C67" s="1">
         <v>402</v>
       </c>
-      <c r="G67" t="s">
-        <v>102</v>
+      <c r="G67" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C68" s="1">
         <v>402</v>
       </c>
-      <c r="G68" t="s">
-        <v>102</v>
+      <c r="G68" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H68" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>163</v>
+      <c r="C70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G71" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="H72" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" t="s">
         <v>125</v>
-      </c>
-      <c r="G73" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="H74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H75" t="s">
         <v>125</v>
-      </c>
-      <c r="G75" t="s">
-        <v>134</v>
-      </c>
-      <c r="H75" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
-      </c>
-      <c r="G76" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="H76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G77" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="H77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G78" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="H78" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
